--- a/Analytics/selfReportData.xlsx
+++ b/Analytics/selfReportData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>Patient Surname</t>
   </si>
@@ -72,42 +72,6 @@
   </si>
   <si>
     <t>Neurology</t>
-  </si>
-  <si>
-    <t>01/01/2018</t>
-  </si>
-  <si>
-    <t>01/01/2019</t>
-  </si>
-  <si>
-    <t>01/01/2020</t>
-  </si>
-  <si>
-    <t>01/01/2021</t>
-  </si>
-  <si>
-    <t>01/01/2022</t>
-  </si>
-  <si>
-    <t>01/01/2023</t>
-  </si>
-  <si>
-    <t>01/01/2024</t>
-  </si>
-  <si>
-    <t>01/01/2025</t>
-  </si>
-  <si>
-    <t>01/01/2026</t>
-  </si>
-  <si>
-    <t>01/01/2027</t>
-  </si>
-  <si>
-    <t>01/01/2028</t>
-  </si>
-  <si>
-    <t>01/01/2029</t>
   </si>
 </sst>
 </file>
@@ -428,7 +392,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,8 +459,8 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
+      <c r="D2">
+        <v>20180101</v>
       </c>
       <c r="E2">
         <v>9</v>
@@ -536,8 +500,8 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
+      <c r="D3">
+        <v>20180102</v>
       </c>
       <c r="E3">
         <v>8</v>
@@ -577,8 +541,8 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
+      <c r="D4">
+        <v>20180103</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -618,8 +582,8 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
+      <c r="D5">
+        <v>20180104</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -659,8 +623,8 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
+      <c r="D6">
+        <v>20180105</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -700,8 +664,8 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
+      <c r="D7">
+        <v>20180106</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -741,8 +705,8 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
+      <c r="D8">
+        <v>20180107</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -782,8 +746,8 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
+      <c r="D9">
+        <v>20180108</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -823,8 +787,8 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
+      <c r="D10">
+        <v>20180109</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -864,8 +828,8 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
+      <c r="D11">
+        <v>20180110</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -905,8 +869,8 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>25</v>
+      <c r="D12">
+        <v>20180111</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -946,8 +910,8 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
+      <c r="D13">
+        <v>20180112</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -987,8 +951,8 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>27</v>
+      <c r="D14">
+        <v>20180113</v>
       </c>
       <c r="E14">
         <v>0</v>
